--- a/tm_consolidado_pobreza extrema.xlsx
+++ b/tm_consolidado_pobreza extrema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Laboral 2023\CEPAL\Costa Rica\Sesion 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FA0CD7-94A5-4825-9087-9D5468A46EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F13F8F3-24D8-43D3-977C-D908F30F0313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,7 +79,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -120,13 +120,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -144,7 +144,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -152,19 +152,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -507,21 +506,20 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection activeCell="F2" sqref="F2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -561,24 +559,23 @@
         <v>8</v>
       </c>
       <c r="C2" s="2">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2">
-        <v>1.65</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1997</v>
-      </c>
-      <c r="F2" s="3">
-        <v>15978</v>
-      </c>
-      <c r="G2" s="4">
-        <v>48578</v>
-      </c>
-      <c r="H2" s="3">
-        <v>19977.494373593399</v>
-      </c>
-      <c r="I2" s="3"/>
+        <v>1.19</v>
+      </c>
+      <c r="E2" s="5">
+        <v>4435</v>
+      </c>
+      <c r="F2" s="6">
+        <v>35478</v>
+      </c>
+      <c r="G2" s="6">
+        <v>35478</v>
+      </c>
+      <c r="H2" s="5">
+        <v>44358.589647411864</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -593,21 +590,20 @@
       <c r="D3" s="2">
         <v>1.29</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="5">
         <v>2946</v>
       </c>
       <c r="F3" s="3">
         <v>23570</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="3">
         <v>23570</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="5">
         <v>30535.043399404069</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="5">
-        <f>SUM(F3:F4)</f>
+      <c r="J3" s="3">
+        <f>F3+F4</f>
         <v>34968</v>
       </c>
     </row>
@@ -624,19 +620,18 @@
       <c r="D4" s="2">
         <v>0.95</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="5">
         <v>1425</v>
       </c>
       <c r="F4" s="3">
         <v>11398</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="3">
         <v>11398</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="5">
         <v>13321.6456287985</v>
       </c>
-      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -651,20 +646,19 @@
       <c r="D5" s="2">
         <v>1.26</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="5">
         <v>1607</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <v>12854</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="4">
         <v>12854</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="5">
         <v>15023.37540906966</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="7">
+      <c r="J5" s="4">
         <f>SUM(F5:F10)</f>
         <v>36312</v>
       </c>
@@ -682,19 +676,18 @@
       <c r="D6" s="2">
         <v>1.1200000000000001</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="5">
         <v>738</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <v>5907</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="4">
         <v>5907</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="5">
         <v>6903.9270687237022</v>
       </c>
-      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -709,19 +702,18 @@
       <c r="D7" s="2">
         <v>1.19</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="5">
         <v>608</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="4">
         <v>4861</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="4">
         <v>4861</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="5">
         <v>5681.3931743805506</v>
       </c>
-      <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -736,19 +728,18 @@
       <c r="D8" s="2">
         <v>1.03</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="5">
         <v>518</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <v>4148</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="4">
         <v>4148</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="5">
         <v>4848.0598410472176</v>
       </c>
-      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -763,19 +754,18 @@
       <c r="D9" s="2">
         <v>0.87</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="5">
         <v>429</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="4">
         <v>3431</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="4">
         <v>3431</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="5">
         <v>4010.0514258999528</v>
       </c>
-      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -790,19 +780,18 @@
       <c r="D10" s="2">
         <v>1.18</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="5">
         <v>639</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="4">
         <v>5111</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="4">
         <v>5111</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="5">
         <v>5973.5857877512854</v>
       </c>
-      <c r="I10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
